--- a/Pregress_Tracking.xlsx
+++ b/Pregress_Tracking.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t xml:space="preserve">Site</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t xml:space="preserve">2020/11/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/12/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array, DP</t>
   </si>
 </sst>
 </file>
@@ -115,6 +124,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -174,13 +184,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,15 +214,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,30 +431,65 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
